--- a/proj_wikipedia/records_athletics/outputs/tables/records_athletics_table.xlsx
+++ b/proj_wikipedia/records_athletics/outputs/tables/records_athletics_table.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2074" uniqueCount="891">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2074" uniqueCount="890">
   <si>
     <t>Event</t>
   </si>
@@ -441,7 +441,7 @@
     <t>9:14.09</t>
   </si>
   <si>
-    <t>14:20.87</t>
+    <t>14:18.37</t>
   </si>
   <si>
     <t>19:14</t>
@@ -1101,7 +1101,7 @@
     <t>14 September 2007</t>
   </si>
   <si>
-    <t>29 July 2011</t>
+    <t>8 June 2017</t>
   </si>
   <si>
     <t>13 October 2013</t>
@@ -1374,9 +1374,6 @@
     <t>Qatar Athletic Super Grand Prix</t>
   </si>
   <si>
-    <t>DN Galan</t>
-  </si>
-  <si>
     <t>4 Mile of Groningen</t>
   </si>
   <si>
@@ -1560,66 +1557,66 @@
     <t>Doha, Qatar</t>
   </si>
   <si>
+    <t>Groningen, Netherlands</t>
+  </si>
+  <si>
+    <t>Prague, Czech Republic</t>
+  </si>
+  <si>
+    <t>Ras al-Khaimah, United Arab Emirates</t>
+  </si>
+  <si>
+    <t>Borgholzhausen, Germany</t>
+  </si>
+  <si>
+    <t>Mengerskirchen, Germany</t>
+  </si>
+  <si>
+    <t>Warstein, Germany</t>
+  </si>
+  <si>
+    <t>Nakuru, Kenya</t>
+  </si>
+  <si>
+    <t>Kisumu, Kenya</t>
+  </si>
+  <si>
+    <t>Victoria, Canada</t>
+  </si>
+  <si>
+    <t>Thika, Kenya</t>
+  </si>
+  <si>
+    <t>State College, United States</t>
+  </si>
+  <si>
+    <t>Allston, United States</t>
+  </si>
+  <si>
+    <t>Kent, United States</t>
+  </si>
+  <si>
+    <t>Liévin, France</t>
+  </si>
+  <si>
+    <t>Albuquerque, United States</t>
+  </si>
+  <si>
+    <t>Stuttgart, Germany</t>
+  </si>
+  <si>
+    <t>Boston, United States</t>
+  </si>
+  <si>
+    <t>Birmingham, United Kingdom</t>
+  </si>
+  <si>
+    <t>Budapest, Hungary</t>
+  </si>
+  <si>
     <t>Stockholm, Sweden</t>
   </si>
   <si>
-    <t>Groningen, Netherlands</t>
-  </si>
-  <si>
-    <t>Prague, Czech Republic</t>
-  </si>
-  <si>
-    <t>Ras al-Khaimah, United Arab Emirates</t>
-  </si>
-  <si>
-    <t>Borgholzhausen, Germany</t>
-  </si>
-  <si>
-    <t>Mengerskirchen, Germany</t>
-  </si>
-  <si>
-    <t>Warstein, Germany</t>
-  </si>
-  <si>
-    <t>Nakuru, Kenya</t>
-  </si>
-  <si>
-    <t>Kisumu, Kenya</t>
-  </si>
-  <si>
-    <t>Victoria, Canada</t>
-  </si>
-  <si>
-    <t>Thika, Kenya</t>
-  </si>
-  <si>
-    <t>State College, United States</t>
-  </si>
-  <si>
-    <t>Allston, United States</t>
-  </si>
-  <si>
-    <t>Kent, United States</t>
-  </si>
-  <si>
-    <t>Liévin, France</t>
-  </si>
-  <si>
-    <t>Albuquerque, United States</t>
-  </si>
-  <si>
-    <t>Stuttgart, Germany</t>
-  </si>
-  <si>
-    <t>Boston, United States</t>
-  </si>
-  <si>
-    <t>Birmingham, United Kingdom</t>
-  </si>
-  <si>
-    <t>Budapest, Hungary</t>
-  </si>
-  <si>
     <t>Ghent, Belgium</t>
   </si>
   <si>
@@ -2007,66 +2004,66 @@
     <t>Doha</t>
   </si>
   <si>
+    <t>Groningen</t>
+  </si>
+  <si>
+    <t>Prague</t>
+  </si>
+  <si>
+    <t>Ras al-Khaimah</t>
+  </si>
+  <si>
+    <t>Borgholzhausen</t>
+  </si>
+  <si>
+    <t>Mengerskirchen</t>
+  </si>
+  <si>
+    <t>Warstein</t>
+  </si>
+  <si>
+    <t>Nakuru</t>
+  </si>
+  <si>
+    <t>Kisumu</t>
+  </si>
+  <si>
+    <t>Victoria</t>
+  </si>
+  <si>
+    <t>14.78 (100 m hurdles)</t>
+  </si>
+  <si>
+    <t>Thika</t>
+  </si>
+  <si>
+    <t>State College</t>
+  </si>
+  <si>
+    <t>Allston</t>
+  </si>
+  <si>
+    <t>Kent</t>
+  </si>
+  <si>
+    <t>Liévin</t>
+  </si>
+  <si>
+    <t>Albuquerque</t>
+  </si>
+  <si>
+    <t>Stuttgart</t>
+  </si>
+  <si>
+    <t>Boston</t>
+  </si>
+  <si>
+    <t>Budapest</t>
+  </si>
+  <si>
     <t>Stockholm</t>
   </si>
   <si>
-    <t>Groningen</t>
-  </si>
-  <si>
-    <t>Prague</t>
-  </si>
-  <si>
-    <t>Ras al-Khaimah</t>
-  </si>
-  <si>
-    <t>Borgholzhausen</t>
-  </si>
-  <si>
-    <t>Mengerskirchen</t>
-  </si>
-  <si>
-    <t>Warstein</t>
-  </si>
-  <si>
-    <t>Nakuru</t>
-  </si>
-  <si>
-    <t>Kisumu</t>
-  </si>
-  <si>
-    <t>Victoria</t>
-  </si>
-  <si>
-    <t>14.78 (100 m hurdles)</t>
-  </si>
-  <si>
-    <t>Thika</t>
-  </si>
-  <si>
-    <t>State College</t>
-  </si>
-  <si>
-    <t>Allston</t>
-  </si>
-  <si>
-    <t>Kent</t>
-  </si>
-  <si>
-    <t>Liévin</t>
-  </si>
-  <si>
-    <t>Albuquerque</t>
-  </si>
-  <si>
-    <t>Stuttgart</t>
-  </si>
-  <si>
-    <t>Boston</t>
-  </si>
-  <si>
-    <t>Budapest</t>
-  </si>
-  <si>
     <t>Ghent</t>
   </si>
   <si>
@@ -2181,19 +2178,19 @@
     <t>Qatar</t>
   </si>
   <si>
+    <t>Czech Republic</t>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>2:10.47 (800 m)</t>
+  </si>
+  <si>
     <t>Sweden</t>
-  </si>
-  <si>
-    <t>Czech Republic</t>
-  </si>
-  <si>
-    <t>United Arab Emirates</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>2:10.47 (800 m)</t>
   </si>
   <si>
     <t>(1000 m)</t>
@@ -2816,22 +2813,22 @@
         <v>420</v>
       </c>
       <c r="F2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J2" t="s">
+        <v>620</v>
+      </c>
+      <c r="K2" t="s">
         <v>621</v>
-      </c>
-      <c r="K2" t="s">
-        <v>622</v>
       </c>
       <c r="L2" t="n" s="2">
         <v>42196.0</v>
@@ -2846,16 +2843,16 @@
         <v>11.0</v>
       </c>
       <c r="P2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="Q2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="R2" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="S2" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="3">
@@ -2875,22 +2872,22 @@
         <v>421</v>
       </c>
       <c r="F3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I3" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J3" t="s">
+        <v>620</v>
+      </c>
+      <c r="K3" t="s">
         <v>621</v>
-      </c>
-      <c r="K3" t="s">
-        <v>622</v>
       </c>
       <c r="L3" t="n" s="2">
         <v>42112.0</v>
@@ -2905,16 +2902,16 @@
         <v>18.0</v>
       </c>
       <c r="P3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="Q3" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="R3" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="S3" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="4">
@@ -2934,22 +2931,22 @@
         <v>422</v>
       </c>
       <c r="F4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="G4" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H4" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I4" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J4" t="s">
+        <v>620</v>
+      </c>
+      <c r="K4" t="s">
         <v>621</v>
-      </c>
-      <c r="K4" t="s">
-        <v>622</v>
       </c>
       <c r="L4" t="n" s="2">
         <v>33819.0</v>
@@ -2964,16 +2961,16 @@
         <v>3.0</v>
       </c>
       <c r="P4" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="Q4" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="R4" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="S4" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="5">
@@ -2993,22 +2990,22 @@
         <v>423</v>
       </c>
       <c r="F5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G5" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H5" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I5" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J5" t="s">
+        <v>620</v>
+      </c>
+      <c r="K5" t="s">
         <v>621</v>
-      </c>
-      <c r="K5" t="s">
-        <v>622</v>
       </c>
       <c r="L5" t="n" s="2">
         <v>42623.0</v>
@@ -3023,16 +3020,16 @@
         <v>10.0</v>
       </c>
       <c r="P5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="Q5" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="R5" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="S5" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="6">
@@ -3052,22 +3049,22 @@
         <v>424</v>
       </c>
       <c r="F6" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G6" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H6" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I6" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J6" t="s">
+        <v>620</v>
+      </c>
+      <c r="K6" t="s">
         <v>621</v>
-      </c>
-      <c r="K6" t="s">
-        <v>622</v>
       </c>
       <c r="L6" t="n" s="2">
         <v>42526.0</v>
@@ -3082,16 +3079,16 @@
         <v>5.0</v>
       </c>
       <c r="P6" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="Q6" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="R6" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="S6" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="7">
@@ -3111,22 +3108,22 @@
         <v>422</v>
       </c>
       <c r="F7" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H7" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I7" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J7" t="s">
+        <v>620</v>
+      </c>
+      <c r="K7" t="s">
         <v>621</v>
-      </c>
-      <c r="K7" t="s">
-        <v>622</v>
       </c>
       <c r="L7" t="n" s="2">
         <v>41130.0</v>
@@ -3141,16 +3138,16 @@
         <v>9.0</v>
       </c>
       <c r="P7" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="Q7" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="R7" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="S7" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="8">
@@ -3170,22 +3167,22 @@
         <v>425</v>
       </c>
       <c r="F8" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G8" t="s">
         <v>428</v>
       </c>
       <c r="H8" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I8" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J8" t="s">
+        <v>620</v>
+      </c>
+      <c r="K8" t="s">
         <v>621</v>
-      </c>
-      <c r="K8" t="s">
-        <v>622</v>
       </c>
       <c r="L8" t="n" s="2">
         <v>36408.0</v>
@@ -3200,16 +3197,16 @@
         <v>5.0</v>
       </c>
       <c r="P8" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="Q8" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="R8" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="S8" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="9">
@@ -3229,22 +3226,22 @@
         <v>426</v>
       </c>
       <c r="F9" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G9" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H9" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I9" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J9" t="s">
+        <v>620</v>
+      </c>
+      <c r="K9" t="s">
         <v>621</v>
-      </c>
-      <c r="K9" t="s">
-        <v>622</v>
       </c>
       <c r="L9" t="n" s="2">
         <v>37127.0</v>
@@ -3259,16 +3256,16 @@
         <v>24.0</v>
       </c>
       <c r="P9" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="Q9" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="R9" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="S9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="10">
@@ -3288,22 +3285,22 @@
         <v>427</v>
       </c>
       <c r="F10" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G10" t="s">
         <v>428</v>
       </c>
       <c r="H10" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I10" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J10" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K10" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="L10" t="n" s="2">
         <v>36348.0</v>
@@ -3318,16 +3315,16 @@
         <v>7.0</v>
       </c>
       <c r="P10" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="Q10" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="R10" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="S10" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="11">
@@ -3347,22 +3344,22 @@
         <v>428</v>
       </c>
       <c r="F11" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G11" t="s">
         <v>428</v>
       </c>
       <c r="H11" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I11" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J11" t="s">
+        <v>620</v>
+      </c>
+      <c r="K11" t="s">
         <v>621</v>
-      </c>
-      <c r="K11" t="s">
-        <v>622</v>
       </c>
       <c r="L11" t="n" s="2">
         <v>36008.0</v>
@@ -3377,16 +3374,16 @@
         <v>1.0</v>
       </c>
       <c r="P11" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="Q11" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="R11" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="S11" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="12">
@@ -3406,22 +3403,22 @@
         <v>425</v>
       </c>
       <c r="F12" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G12" t="s">
         <v>428</v>
       </c>
       <c r="H12" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I12" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J12" t="s">
+        <v>620</v>
+      </c>
+      <c r="K12" t="s">
         <v>621</v>
-      </c>
-      <c r="K12" t="s">
-        <v>622</v>
       </c>
       <c r="L12" t="n" s="2">
         <v>35309.0</v>
@@ -3436,16 +3433,16 @@
         <v>1.0</v>
       </c>
       <c r="P12" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="Q12" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="R12" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="S12" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="13">
@@ -3465,22 +3462,22 @@
         <v>428</v>
       </c>
       <c r="F13" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G13" t="s">
         <v>428</v>
       </c>
       <c r="H13" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I13" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J13" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K13" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="L13" t="n" s="2">
         <v>35628.0</v>
@@ -3495,16 +3492,16 @@
         <v>17.0</v>
       </c>
       <c r="P13" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="Q13" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="R13" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="S13" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="14">
@@ -3524,22 +3521,22 @@
         <v>426</v>
       </c>
       <c r="F14" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G14" t="s">
         <v>428</v>
       </c>
       <c r="H14" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I14" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J14" t="s">
+        <v>620</v>
+      </c>
+      <c r="K14" t="s">
         <v>621</v>
-      </c>
-      <c r="K14" t="s">
-        <v>622</v>
       </c>
       <c r="L14" t="n" s="2">
         <v>35664.0</v>
@@ -3554,16 +3551,16 @@
         <v>22.0</v>
       </c>
       <c r="P14" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="Q14" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="R14" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="S14" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="15">
@@ -3583,22 +3580,22 @@
         <v>429</v>
       </c>
       <c r="F15" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G15" t="s">
         <v>428</v>
       </c>
       <c r="H15" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I15" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J15" t="s">
+        <v>620</v>
+      </c>
+      <c r="K15" t="s">
         <v>621</v>
-      </c>
-      <c r="K15" t="s">
-        <v>622</v>
       </c>
       <c r="L15" t="n" s="2">
         <v>36611.0</v>
@@ -3613,16 +3610,16 @@
         <v>26.0</v>
       </c>
       <c r="P15" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="Q15" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="R15" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="S15" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="16">
@@ -3642,22 +3639,22 @@
         <v>430</v>
       </c>
       <c r="F16" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G16" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H16" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I16" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J16" t="s">
+        <v>620</v>
+      </c>
+      <c r="K16" t="s">
         <v>621</v>
-      </c>
-      <c r="K16" t="s">
-        <v>622</v>
       </c>
       <c r="L16" t="n" s="2">
         <v>41363.0</v>
@@ -3672,16 +3669,16 @@
         <v>30.0</v>
       </c>
       <c r="P16" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="Q16" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="R16" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="S16" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="17">
@@ -3701,22 +3698,22 @@
         <v>426</v>
       </c>
       <c r="F17" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G17" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H17" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I17" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J17" t="s">
+        <v>620</v>
+      </c>
+      <c r="K17" t="s">
         <v>621</v>
-      </c>
-      <c r="K17" t="s">
-        <v>622</v>
       </c>
       <c r="L17" t="n" s="2">
         <v>35664.0</v>
@@ -3731,16 +3728,16 @@
         <v>22.0</v>
       </c>
       <c r="P17" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="Q17" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="R17" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="S17" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="18">
@@ -3760,22 +3757,22 @@
         <v>431</v>
       </c>
       <c r="F18" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G18" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H18" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I18" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J18" t="s">
+        <v>620</v>
+      </c>
+      <c r="K18" t="s">
         <v>621</v>
-      </c>
-      <c r="K18" t="s">
-        <v>622</v>
       </c>
       <c r="L18" t="n" s="2">
         <v>40447.0</v>
@@ -3790,16 +3787,16 @@
         <v>26.0</v>
       </c>
       <c r="P18" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="Q18" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="R18" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="S18" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="19">
@@ -3819,22 +3816,22 @@
         <v>432</v>
       </c>
       <c r="F19" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G19" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H19" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I19" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J19" t="s">
+        <v>620</v>
+      </c>
+      <c r="K19" t="s">
         <v>621</v>
-      </c>
-      <c r="K19" t="s">
-        <v>622</v>
       </c>
       <c r="L19" t="n" s="2">
         <v>40503.0</v>
@@ -3849,16 +3846,16 @@
         <v>21.0</v>
       </c>
       <c r="P19" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="Q19" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="R19" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="S19" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="20">
@@ -3878,22 +3875,22 @@
         <v>433</v>
       </c>
       <c r="F20" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="G20" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H20" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I20" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J20" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K20" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="L20" t="n" s="2">
         <v>40804.0</v>
@@ -3908,16 +3905,16 @@
         <v>18.0</v>
       </c>
       <c r="P20" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="Q20" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="R20" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="S20" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="21">
@@ -3937,22 +3934,22 @@
         <v>434</v>
       </c>
       <c r="F21" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G21" t="s">
         <v>428</v>
       </c>
       <c r="H21" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I21" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J21" t="s">
+        <v>620</v>
+      </c>
+      <c r="K21" t="s">
         <v>621</v>
-      </c>
-      <c r="K21" t="s">
-        <v>622</v>
       </c>
       <c r="L21" t="n" s="2">
         <v>38998.0</v>
@@ -3967,16 +3964,16 @@
         <v>8.0</v>
       </c>
       <c r="P21" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="Q21" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="R21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="S21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="22">
@@ -3996,19 +3993,19 @@
         <v>435</v>
       </c>
       <c r="F22" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G22" t="s">
         <v>428</v>
       </c>
       <c r="H22" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I22" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J22" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K22" t="s">
         <v>45</v>
@@ -4026,16 +4023,16 @@
         <v>17.0</v>
       </c>
       <c r="P22" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="Q22" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="R22" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="S22" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="23">
@@ -4055,22 +4052,22 @@
         <v>436</v>
       </c>
       <c r="F23" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G23" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H23" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I23" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J23" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K23" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="L23" t="n" s="2">
         <v>39965.0</v>
@@ -4085,16 +4082,16 @@
         <v>1.0</v>
       </c>
       <c r="P23" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="Q23" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="R23" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="S23" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="24">
@@ -4114,22 +4111,22 @@
         <v>437</v>
       </c>
       <c r="F24" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G24" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H24" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I24" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J24" t="s">
+        <v>620</v>
+      </c>
+      <c r="K24" t="s">
         <v>621</v>
-      </c>
-      <c r="K24" t="s">
-        <v>622</v>
       </c>
       <c r="L24" t="n" s="2">
         <v>40697.0</v>
@@ -4144,16 +4141,16 @@
         <v>3.0</v>
       </c>
       <c r="P24" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="Q24" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="R24" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="S24" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="25">
@@ -4173,22 +4170,22 @@
         <v>438</v>
       </c>
       <c r="F25" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G25" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H25" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I25" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J25" t="s">
+        <v>620</v>
+      </c>
+      <c r="K25" t="s">
         <v>621</v>
-      </c>
-      <c r="K25" t="s">
-        <v>622</v>
       </c>
       <c r="L25" t="n" s="2">
         <v>41035.0</v>
@@ -4203,16 +4200,16 @@
         <v>6.0</v>
       </c>
       <c r="P25" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="Q25" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="R25" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="S25" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="26">
@@ -4232,22 +4229,22 @@
         <v>437</v>
       </c>
       <c r="F26" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G26" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H26" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I26" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J26" t="s">
+        <v>620</v>
+      </c>
+      <c r="K26" t="s">
         <v>621</v>
-      </c>
-      <c r="K26" t="s">
-        <v>622</v>
       </c>
       <c r="L26" t="n" s="2">
         <v>40697.0</v>
@@ -4262,16 +4259,16 @@
         <v>3.0</v>
       </c>
       <c r="P26" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="Q26" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="R26" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="S26" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="27">
@@ -4291,22 +4288,22 @@
         <v>439</v>
       </c>
       <c r="F27" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G27" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H27" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I27" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J27" t="s">
+        <v>620</v>
+      </c>
+      <c r="K27" t="s">
         <v>621</v>
-      </c>
-      <c r="K27" t="s">
-        <v>622</v>
       </c>
       <c r="L27" t="n" s="2">
         <v>42484.0</v>
@@ -4321,16 +4318,16 @@
         <v>24.0</v>
       </c>
       <c r="P27" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="Q27" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="R27" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="S27" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="28">
@@ -4350,22 +4347,22 @@
         <v>439</v>
       </c>
       <c r="F28" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G28" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H28" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I28" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J28" t="s">
+        <v>620</v>
+      </c>
+      <c r="K28" t="s">
         <v>621</v>
-      </c>
-      <c r="K28" t="s">
-        <v>622</v>
       </c>
       <c r="L28" t="n" s="2">
         <v>42484.0</v>
@@ -4380,16 +4377,16 @@
         <v>24.0</v>
       </c>
       <c r="P28" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="Q28" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="R28" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="S28" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="29">
@@ -4409,19 +4406,19 @@
         <v>440</v>
       </c>
       <c r="F29" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G29" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H29" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I29" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J29" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K29" t="s">
         <v>45</v>
@@ -4439,16 +4436,16 @@
         <v>28.0</v>
       </c>
       <c r="P29" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="Q29" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="R29" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="S29" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="30">
@@ -4468,19 +4465,19 @@
         <v>441</v>
       </c>
       <c r="F30" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G30" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H30" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I30" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J30" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K30" t="s">
         <v>45</v>
@@ -4498,16 +4495,16 @@
         <v>6.0</v>
       </c>
       <c r="P30" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="Q30" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="R30" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="S30" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="31">
@@ -4527,22 +4524,22 @@
         <v>442</v>
       </c>
       <c r="F31" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G31" t="s">
         <v>428</v>
       </c>
       <c r="H31" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I31" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J31" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K31" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="L31" t="n" s="2">
         <v>27055.0</v>
@@ -4557,16 +4554,16 @@
         <v>26.0</v>
       </c>
       <c r="P31" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="Q31" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="R31" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="S31" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="32">
@@ -4586,22 +4583,22 @@
         <v>422</v>
       </c>
       <c r="F32" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G32" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H32" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I32" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J32" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K32" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="L32" t="n" s="2">
         <v>42600.0</v>
@@ -4616,16 +4613,16 @@
         <v>18.0</v>
       </c>
       <c r="P32" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="Q32" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="R32" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="S32" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="33">
@@ -4645,22 +4642,22 @@
         <v>443</v>
       </c>
       <c r="F33" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G33" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H33" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I33" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J33" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K33" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="L33" t="n" s="2">
         <v>40746.0</v>
@@ -4675,16 +4672,16 @@
         <v>22.0</v>
       </c>
       <c r="P33" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="Q33" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="R33" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="S33" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="34">
@@ -4704,22 +4701,22 @@
         <v>420</v>
       </c>
       <c r="F34" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G34" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H34" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I34" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J34" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K34" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="L34" t="n" s="2">
         <v>42216.0</v>
@@ -4734,16 +4731,16 @@
         <v>31.0</v>
       </c>
       <c r="P34" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="Q34" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="R34" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="S34" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="35">
@@ -4763,22 +4760,22 @@
         <v>428</v>
       </c>
       <c r="F35" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G35" t="s">
         <v>428</v>
       </c>
       <c r="H35" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I35" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J35" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K35" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="L35" t="n" s="2">
         <v>36729.0</v>
@@ -4793,16 +4790,16 @@
         <v>22.0</v>
       </c>
       <c r="P35" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="Q35" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="R35" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="S35" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="36">
@@ -4822,22 +4819,22 @@
         <v>428</v>
       </c>
       <c r="F36" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G36" t="s">
         <v>428</v>
       </c>
       <c r="H36" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I36" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J36" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K36" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="L36" t="n" s="2">
         <v>34956.0</v>
@@ -4852,16 +4849,16 @@
         <v>14.0</v>
       </c>
       <c r="P36" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="Q36" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="R36" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="S36" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="37">
@@ -4881,22 +4878,22 @@
         <v>428</v>
       </c>
       <c r="F37" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G37" t="s">
         <v>428</v>
       </c>
       <c r="H37" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I37" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J37" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K37" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="L37" t="n" s="2">
         <v>35235.0</v>
@@ -4911,16 +4908,16 @@
         <v>19.0</v>
       </c>
       <c r="P37" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="Q37" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="R37" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="S37" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="38">
@@ -4940,22 +4937,22 @@
         <v>428</v>
       </c>
       <c r="F38" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G38" t="s">
         <v>428</v>
       </c>
       <c r="H38" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I38" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J38" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K38" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="L38" t="n" s="2">
         <v>32787.0</v>
@@ -4970,16 +4967,16 @@
         <v>6.0</v>
       </c>
       <c r="P38" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="Q38" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="R38" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="S38" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="39">
@@ -4999,22 +4996,22 @@
         <v>428</v>
       </c>
       <c r="F39" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G39" t="s">
         <v>428</v>
       </c>
       <c r="H39" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I39" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J39" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K39" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="L39" t="n" s="2">
         <v>34538.0</v>
@@ -5029,16 +5026,16 @@
         <v>23.0</v>
       </c>
       <c r="P39" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="Q39" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="R39" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="S39" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="40">
@@ -5058,22 +5055,22 @@
         <v>428</v>
       </c>
       <c r="F40" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G40" t="s">
         <v>428</v>
       </c>
       <c r="H40" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I40" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J40" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K40" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="L40" t="n" s="2">
         <v>34152.0</v>
@@ -5088,16 +5085,16 @@
         <v>2.0</v>
       </c>
       <c r="P40" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="Q40" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="R40" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="S40" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="41">
@@ -5117,22 +5114,22 @@
         <v>444</v>
       </c>
       <c r="F41" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G41" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H41" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I41" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J41" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K41" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="L41" t="n" s="2">
         <v>42242.0</v>
@@ -5147,16 +5144,16 @@
         <v>26.0</v>
       </c>
       <c r="P41" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="Q41" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="R41" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="S41" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="42">
@@ -5176,22 +5173,22 @@
         <v>442</v>
       </c>
       <c r="F42" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G42" t="s">
         <v>428</v>
       </c>
       <c r="H42" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I42" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J42" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K42" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="L42" t="e" s="2">
         <v>#N/A</v>
@@ -5206,16 +5203,16 @@
         <v>#N/A</v>
       </c>
       <c r="P42" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="Q42" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="R42" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="S42" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="43">
@@ -5241,16 +5238,16 @@
         <v>428</v>
       </c>
       <c r="H43" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I43" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J43" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K43" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="L43" t="e" s="2">
         <v>#N/A</v>
@@ -5265,16 +5262,16 @@
         <v>#N/A</v>
       </c>
       <c r="P43" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="Q43" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="R43" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="S43" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="44">
@@ -5294,22 +5291,22 @@
         <v>445</v>
       </c>
       <c r="F44" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G44" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H44" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I44" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J44" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K44" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="L44" t="n" s="2">
         <v>42547.0</v>
@@ -5324,16 +5321,16 @@
         <v>26.0</v>
       </c>
       <c r="P44" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="Q44" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="R44" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="S44" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="45">
@@ -5353,22 +5350,22 @@
         <v>420</v>
       </c>
       <c r="F45" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G45" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H45" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I45" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J45" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K45" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="L45" t="n" s="2">
         <v>40740.0</v>
@@ -5383,16 +5380,16 @@
         <v>16.0</v>
       </c>
       <c r="P45" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="Q45" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="R45" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="S45" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="46">
@@ -5412,22 +5409,22 @@
         <v>422</v>
       </c>
       <c r="F46" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G46" t="s">
         <v>428</v>
       </c>
       <c r="H46" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I46" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J46" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K46" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="L46" t="n" s="2">
         <v>32416.0</v>
@@ -5442,16 +5439,16 @@
         <v>30.0</v>
       </c>
       <c r="P46" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="Q46" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="R46" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="S46" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="47">
@@ -5471,22 +5468,22 @@
         <v>445</v>
       </c>
       <c r="F47" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G47" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H47" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I47" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J47" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K47" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="L47" t="n" s="2">
         <v>40389.0</v>
@@ -5501,16 +5498,16 @@
         <v>30.0</v>
       </c>
       <c r="P47" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="Q47" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="R47" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="S47" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="48">
@@ -5530,22 +5527,22 @@
         <v>446</v>
       </c>
       <c r="F48" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G48" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H48" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I48" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J48" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K48" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="L48" t="n" s="2">
         <v>41783.0</v>
@@ -5560,16 +5557,16 @@
         <v>24.0</v>
       </c>
       <c r="P48" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="Q48" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="R48" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="S48" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="49">
@@ -5589,22 +5586,22 @@
         <v>422</v>
       </c>
       <c r="F49" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="G49" t="s">
         <v>428</v>
       </c>
       <c r="H49" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I49" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J49" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K49" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="L49" t="n" s="2">
         <v>33823.0</v>
@@ -5619,16 +5616,16 @@
         <v>7.0</v>
       </c>
       <c r="P49" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="Q49" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="R49" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="S49" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="50">
@@ -5648,22 +5645,22 @@
         <v>426</v>
       </c>
       <c r="F50" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G50" t="s">
         <v>428</v>
       </c>
       <c r="H50" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I50" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J50" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K50" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="L50" t="n" s="2">
         <v>38954.0</v>
@@ -5678,16 +5675,16 @@
         <v>25.0</v>
       </c>
       <c r="P50" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="Q50" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="R50" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="S50" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="51">
@@ -5707,22 +5704,22 @@
         <v>447</v>
       </c>
       <c r="F51" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G51" t="s">
         <v>428</v>
       </c>
       <c r="H51" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I51" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J51" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K51" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="L51" t="n" s="2">
         <v>38836.0</v>
@@ -5737,16 +5734,16 @@
         <v>29.0</v>
       </c>
       <c r="P51" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="Q51" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="R51" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="S51" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="52">
@@ -5766,22 +5763,22 @@
         <v>446</v>
       </c>
       <c r="F52" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G52" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H52" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I52" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J52" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K52" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="L52" t="n" s="2">
         <v>41784.0</v>
@@ -5796,16 +5793,16 @@
         <v>25.0</v>
       </c>
       <c r="P52" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="Q52" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="R52" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="S52" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="53">
@@ -5825,22 +5822,22 @@
         <v>448</v>
       </c>
       <c r="F53" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G53" t="s">
         <v>428</v>
       </c>
       <c r="H53" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I53" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J53" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K53" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="L53" t="n" s="2">
         <v>38679.0</v>
@@ -5855,16 +5852,16 @@
         <v>23.0</v>
       </c>
       <c r="P53" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="Q53" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="R53" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="S53" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="54">
@@ -5884,22 +5881,22 @@
         <v>449</v>
       </c>
       <c r="F54" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G54" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H54" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I54" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="J54" t="s">
+        <v>620</v>
+      </c>
+      <c r="K54" t="s">
         <v>621</v>
-      </c>
-      <c r="K54" t="s">
-        <v>622</v>
       </c>
       <c r="L54" t="n" s="2">
         <v>42261.0</v>
@@ -5914,16 +5911,16 @@
         <v>14.0</v>
       </c>
       <c r="P54" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="Q54" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="R54" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="S54" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="55">
@@ -5943,22 +5940,22 @@
         <v>422</v>
       </c>
       <c r="F55" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G55" t="s">
         <v>428</v>
       </c>
       <c r="H55" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I55" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="J55" t="s">
+        <v>620</v>
+      </c>
+      <c r="K55" t="s">
         <v>621</v>
-      </c>
-      <c r="K55" t="s">
-        <v>622</v>
       </c>
       <c r="L55" t="n" s="2">
         <v>30902.0</v>
@@ -5973,16 +5970,16 @@
         <v>8.0</v>
       </c>
       <c r="P55" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="Q55" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="R55" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="S55" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="56">
@@ -6002,22 +5999,22 @@
         <v>420</v>
       </c>
       <c r="F56" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G56" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H56" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I56" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="J56" t="s">
+        <v>620</v>
+      </c>
+      <c r="K56" t="s">
         <v>621</v>
-      </c>
-      <c r="K56" t="s">
-        <v>622</v>
       </c>
       <c r="L56" t="n" s="2">
         <v>42195.0</v>
@@ -6032,16 +6029,16 @@
         <v>10.0</v>
       </c>
       <c r="P56" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="Q56" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="R56" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="S56" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="57">
@@ -6061,22 +6058,22 @@
         <v>420</v>
       </c>
       <c r="F57" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G57" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H57" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I57" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="J57" t="s">
+        <v>620</v>
+      </c>
+      <c r="K57" t="s">
         <v>621</v>
-      </c>
-      <c r="K57" t="s">
-        <v>622</v>
       </c>
       <c r="L57" t="n" s="2">
         <v>42196.0</v>
@@ -6091,16 +6088,16 @@
         <v>11.0</v>
       </c>
       <c r="P57" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="Q57" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="R57" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="S57" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="58">
@@ -6120,22 +6117,22 @@
         <v>444</v>
       </c>
       <c r="F58" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G58" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H58" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I58" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="J58" t="s">
+        <v>620</v>
+      </c>
+      <c r="K58" t="s">
         <v>621</v>
-      </c>
-      <c r="K58" t="s">
-        <v>622</v>
       </c>
       <c r="L58" t="n" s="2">
         <v>42240.0</v>
@@ -6150,16 +6147,16 @@
         <v>24.0</v>
       </c>
       <c r="P58" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="Q58" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="R58" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="S58" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="59">
@@ -6179,22 +6176,22 @@
         <v>450</v>
       </c>
       <c r="F59" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G59" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H59" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I59" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="J59" t="s">
+        <v>620</v>
+      </c>
+      <c r="K59" t="s">
         <v>621</v>
-      </c>
-      <c r="K59" t="s">
-        <v>622</v>
       </c>
       <c r="L59" t="n" s="2">
         <v>41095.0</v>
@@ -6209,16 +6206,16 @@
         <v>5.0</v>
       </c>
       <c r="P59" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="Q59" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="R59" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="S59" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="60">
@@ -6238,22 +6235,22 @@
         <v>451</v>
       </c>
       <c r="F60" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G60" t="s">
         <v>428</v>
       </c>
       <c r="H60" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I60" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="J60" t="s">
+        <v>620</v>
+      </c>
+      <c r="K60" t="s">
         <v>621</v>
-      </c>
-      <c r="K60" t="s">
-        <v>622</v>
       </c>
       <c r="L60" t="n" s="2">
         <v>39689.0</v>
@@ -6268,16 +6265,16 @@
         <v>29.0</v>
       </c>
       <c r="P60" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="Q60" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="R60" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="S60" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="61">
@@ -6297,22 +6294,22 @@
         <v>428</v>
       </c>
       <c r="F61" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G61" t="s">
         <v>428</v>
       </c>
       <c r="H61" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I61" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="J61" t="s">
+        <v>620</v>
+      </c>
+      <c r="K61" t="s">
         <v>621</v>
-      </c>
-      <c r="K61" t="s">
-        <v>622</v>
       </c>
       <c r="L61" t="n" s="2">
         <v>37081.0</v>
@@ -6327,16 +6324,16 @@
         <v>9.0</v>
       </c>
       <c r="P61" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="Q61" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="R61" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="S61" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="62">
@@ -6356,22 +6353,22 @@
         <v>437</v>
       </c>
       <c r="F62" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G62" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H62" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I62" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="J62" t="s">
+        <v>620</v>
+      </c>
+      <c r="K62" t="s">
         <v>621</v>
-      </c>
-      <c r="K62" t="s">
-        <v>622</v>
       </c>
       <c r="L62" t="n" s="2">
         <v>42518.0</v>
@@ -6386,16 +6383,16 @@
         <v>28.0</v>
       </c>
       <c r="P62" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="Q62" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="R62" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="S62" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="63">
@@ -6415,22 +6412,22 @@
         <v>426</v>
       </c>
       <c r="F63" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G63" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H63" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I63" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="J63" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K63" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="L63" t="n" s="2">
         <v>42258.0</v>
@@ -6445,16 +6442,16 @@
         <v>11.0</v>
       </c>
       <c r="P63" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="Q63" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="R63" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="S63" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="64">
@@ -6474,22 +6471,22 @@
         <v>437</v>
       </c>
       <c r="F64" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G64" t="s">
         <v>428</v>
       </c>
       <c r="H64" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I64" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="J64" t="s">
+        <v>620</v>
+      </c>
+      <c r="K64" t="s">
         <v>621</v>
-      </c>
-      <c r="K64" t="s">
-        <v>622</v>
       </c>
       <c r="L64" t="n" s="2">
         <v>39971.0</v>
@@ -6504,16 +6501,16 @@
         <v>7.0</v>
       </c>
       <c r="P64" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="Q64" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="R64" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="S64" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="65">
@@ -6533,22 +6530,22 @@
         <v>452</v>
       </c>
       <c r="F65" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G65" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H65" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I65" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="J65" t="s">
+        <v>620</v>
+      </c>
+      <c r="K65" t="s">
         <v>621</v>
-      </c>
-      <c r="K65" t="s">
-        <v>622</v>
       </c>
       <c r="L65" t="n" s="2">
         <v>41768.0</v>
@@ -6563,16 +6560,16 @@
         <v>9.0</v>
       </c>
       <c r="P65" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="Q65" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="R65" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="S65" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="66">
@@ -6592,22 +6589,22 @@
         <v>426</v>
       </c>
       <c r="F66" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G66" t="s">
         <v>428</v>
       </c>
       <c r="H66" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I66" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="J66" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K66" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="L66" t="n" s="2">
         <v>39339.0</v>
@@ -6622,16 +6619,16 @@
         <v>14.0</v>
       </c>
       <c r="P66" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="Q66" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="R66" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="S66" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="67">
@@ -6642,49 +6639,49 @@
         <v>142</v>
       </c>
       <c r="C67" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D67" t="s">
         <v>362</v>
       </c>
       <c r="E67" t="s">
-        <v>453</v>
+        <v>427</v>
       </c>
       <c r="F67" t="s">
-        <v>515</v>
+        <v>482</v>
       </c>
       <c r="G67" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H67" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I67" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="J67" t="s">
+        <v>620</v>
+      </c>
+      <c r="K67" t="s">
         <v>621</v>
       </c>
-      <c r="K67" t="s">
-        <v>622</v>
-      </c>
       <c r="L67" t="n" s="2">
-        <v>40753.0</v>
+        <v>42894.0</v>
       </c>
       <c r="M67" t="n">
-        <v>2011.0</v>
+        <v>2017.0</v>
       </c>
       <c r="N67" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="O67" t="n">
-        <v>29.0</v>
+        <v>8.0</v>
       </c>
       <c r="P67" t="s">
-        <v>664</v>
+        <v>631</v>
       </c>
       <c r="Q67" t="s">
-        <v>722</v>
+        <v>702</v>
       </c>
       <c r="R67" t="s">
         <v>773</v>
@@ -6707,25 +6704,25 @@
         <v>363</v>
       </c>
       <c r="E68" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F68" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="G68" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H68" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I68" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="J68" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K68" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="L68" t="n" s="2">
         <v>41560.0</v>
@@ -6740,16 +6737,16 @@
         <v>13.0</v>
       </c>
       <c r="P68" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="Q68" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="R68" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="S68" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="69">
@@ -6769,22 +6766,22 @@
         <v>422</v>
       </c>
       <c r="F69" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G69" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H69" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I69" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="J69" t="s">
+        <v>620</v>
+      </c>
+      <c r="K69" t="s">
         <v>621</v>
-      </c>
-      <c r="K69" t="s">
-        <v>622</v>
       </c>
       <c r="L69" t="n" s="2">
         <v>42594.0</v>
@@ -6799,16 +6796,16 @@
         <v>12.0</v>
       </c>
       <c r="P69" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="Q69" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="R69" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="S69" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="70">
@@ -6825,25 +6822,25 @@
         <v>365</v>
       </c>
       <c r="E70" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F70" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="G70" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H70" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I70" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="J70" t="s">
+        <v>620</v>
+      </c>
+      <c r="K70" t="s">
         <v>621</v>
-      </c>
-      <c r="K70" t="s">
-        <v>622</v>
       </c>
       <c r="L70" t="n" s="2">
         <v>42826.0</v>
@@ -6858,16 +6855,16 @@
         <v>1.0</v>
       </c>
       <c r="P70" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="Q70" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="R70" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="S70" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="71">
@@ -6884,25 +6881,25 @@
         <v>365</v>
       </c>
       <c r="E71" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F71" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="G71" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H71" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I71" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="J71" t="s">
+        <v>620</v>
+      </c>
+      <c r="K71" t="s">
         <v>621</v>
-      </c>
-      <c r="K71" t="s">
-        <v>622</v>
       </c>
       <c r="L71" t="n" s="2">
         <v>42826.0</v>
@@ -6917,16 +6914,16 @@
         <v>1.0</v>
       </c>
       <c r="P71" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="Q71" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="R71" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="S71" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="72">
@@ -6943,25 +6940,25 @@
         <v>366</v>
       </c>
       <c r="E72" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F72" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="G72" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H72" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I72" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="J72" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K72" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="L72" t="n" s="2">
         <v>40592.0</v>
@@ -6976,16 +6973,16 @@
         <v>18.0</v>
       </c>
       <c r="P72" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="Q72" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="R72" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="S72" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="73">
@@ -7005,22 +7002,22 @@
         <v>428</v>
       </c>
       <c r="F73" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="G73" t="s">
         <v>428</v>
       </c>
       <c r="H73" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I73" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="J73" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K73" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="L73" t="n" s="2">
         <v>36015.0</v>
@@ -7035,16 +7032,16 @@
         <v>8.0</v>
       </c>
       <c r="P73" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="Q73" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="R73" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="S73" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="74">
@@ -7064,22 +7061,22 @@
         <v>428</v>
       </c>
       <c r="F74" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="G74" t="s">
         <v>428</v>
       </c>
       <c r="H74" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I74" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="J74" t="s">
+        <v>620</v>
+      </c>
+      <c r="K74" t="s">
         <v>621</v>
-      </c>
-      <c r="K74" t="s">
-        <v>622</v>
       </c>
       <c r="L74" t="n" s="2">
         <v>36772.0</v>
@@ -7094,16 +7091,16 @@
         <v>3.0</v>
       </c>
       <c r="P74" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="Q74" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="R74" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="S74" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="75">
@@ -7120,25 +7117,25 @@
         <v>365</v>
       </c>
       <c r="E75" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F75" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="G75" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H75" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I75" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="J75" t="s">
+        <v>620</v>
+      </c>
+      <c r="K75" t="s">
         <v>621</v>
-      </c>
-      <c r="K75" t="s">
-        <v>622</v>
       </c>
       <c r="L75" t="n" s="2">
         <v>42826.0</v>
@@ -7153,16 +7150,16 @@
         <v>1.0</v>
       </c>
       <c r="P75" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="Q75" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="R75" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="S75" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="76">
@@ -7179,22 +7176,22 @@
         <v>365</v>
       </c>
       <c r="E76" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F76" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="G76" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H76" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I76" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="J76" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K76" t="s">
         <v>45</v>
@@ -7212,16 +7209,16 @@
         <v>1.0</v>
       </c>
       <c r="P76" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="Q76" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="R76" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="S76" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="77">
@@ -7241,22 +7238,22 @@
         <v>428</v>
       </c>
       <c r="F77" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="G77" t="s">
         <v>428</v>
       </c>
       <c r="H77" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I77" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="J77" t="s">
+        <v>620</v>
+      </c>
+      <c r="K77" t="s">
         <v>621</v>
-      </c>
-      <c r="K77" t="s">
-        <v>622</v>
       </c>
       <c r="L77" t="n" s="2">
         <v>37520.0</v>
@@ -7271,16 +7268,16 @@
         <v>21.0</v>
       </c>
       <c r="P77" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="Q77" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="R77" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="S77" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="78">
@@ -7300,22 +7297,22 @@
         <v>439</v>
       </c>
       <c r="F78" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G78" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H78" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I78" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="J78" t="s">
+        <v>620</v>
+      </c>
+      <c r="K78" t="s">
         <v>621</v>
-      </c>
-      <c r="K78" t="s">
-        <v>622</v>
       </c>
       <c r="L78" t="n" s="2">
         <v>42848.0</v>
@@ -7330,16 +7327,16 @@
         <v>23.0</v>
       </c>
       <c r="P78" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="Q78" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="R78" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="S78" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="79">
@@ -7359,22 +7356,22 @@
         <v>428</v>
       </c>
       <c r="F79" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="G79" t="s">
         <v>428</v>
       </c>
       <c r="H79" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I79" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="J79" t="s">
+        <v>620</v>
+      </c>
+      <c r="K79" t="s">
         <v>621</v>
-      </c>
-      <c r="K79" t="s">
-        <v>622</v>
       </c>
       <c r="L79" t="n" s="2">
         <v>37778.0</v>
@@ -7389,16 +7386,16 @@
         <v>6.0</v>
       </c>
       <c r="P79" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="Q79" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="R79" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="S79" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="80">
@@ -7418,22 +7415,22 @@
         <v>439</v>
       </c>
       <c r="F80" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G80" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H80" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I80" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="J80" t="s">
+        <v>620</v>
+      </c>
+      <c r="K80" t="s">
         <v>621</v>
-      </c>
-      <c r="K80" t="s">
-        <v>622</v>
       </c>
       <c r="L80" t="n" s="2">
         <v>42848.0</v>
@@ -7448,16 +7445,16 @@
         <v>23.0</v>
       </c>
       <c r="P80" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="Q80" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="R80" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="S80" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="81">
@@ -7477,19 +7474,19 @@
         <v>439</v>
       </c>
       <c r="F81" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G81" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H81" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I81" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="J81" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K81" t="s">
         <v>45</v>
@@ -7507,16 +7504,16 @@
         <v>23.0</v>
       </c>
       <c r="P81" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="Q81" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="R81" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="S81" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="82">
@@ -7536,22 +7533,22 @@
         <v>420</v>
       </c>
       <c r="F82" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G82" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H82" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I82" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="J82" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K82" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="L82" t="n" s="2">
         <v>42196.0</v>
@@ -7566,16 +7563,16 @@
         <v>11.0</v>
       </c>
       <c r="P82" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="Q82" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="R82" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="S82" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="83">
@@ -7595,22 +7592,22 @@
         <v>420</v>
       </c>
       <c r="F83" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G83" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H83" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I83" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="J83" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K83" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="L83" t="n" s="2">
         <v>42196.0</v>
@@ -7625,16 +7622,16 @@
         <v>11.0</v>
       </c>
       <c r="P83" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="Q83" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="R83" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="S83" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="84">
@@ -7651,25 +7648,25 @@
         <v>372</v>
       </c>
       <c r="E84" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F84" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G84" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H84" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I84" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="J84" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K84" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="L84" t="n" s="2">
         <v>42253.0</v>
@@ -7684,16 +7681,16 @@
         <v>6.0</v>
       </c>
       <c r="P84" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="Q84" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="R84" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="S84" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="85">
@@ -7713,22 +7710,22 @@
         <v>437</v>
       </c>
       <c r="F85" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G85" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H85" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I85" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="J85" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K85" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="L85" t="n" s="2">
         <v>42518.0</v>
@@ -7743,16 +7740,16 @@
         <v>28.0</v>
       </c>
       <c r="P85" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="Q85" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="R85" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="S85" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="86">
@@ -7772,22 +7769,22 @@
         <v>428</v>
       </c>
       <c r="F86" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G86" t="s">
         <v>428</v>
       </c>
       <c r="H86" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I86" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="J86" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K86" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="L86" t="n" s="2">
         <v>33396.0</v>
@@ -7802,16 +7799,16 @@
         <v>7.0</v>
       </c>
       <c r="P86" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="Q86" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="R86" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="S86" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="87">
@@ -7828,25 +7825,25 @@
         <v>374</v>
       </c>
       <c r="E87" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F87" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G87" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H87" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I87" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="J87" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K87" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="L87" t="n" s="2">
         <v>41040.0</v>
@@ -7861,16 +7858,16 @@
         <v>11.0</v>
       </c>
       <c r="P87" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="Q87" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="R87" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="S87" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="88">
@@ -7890,22 +7887,22 @@
         <v>428</v>
       </c>
       <c r="F88" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G88" t="s">
         <v>428</v>
       </c>
       <c r="H88" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I88" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="J88" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K88" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="L88" t="n" s="2">
         <v>32865.0</v>
@@ -7920,16 +7917,16 @@
         <v>23.0</v>
       </c>
       <c r="P88" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="Q88" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="R88" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="S88" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="89">
@@ -7949,22 +7946,22 @@
         <v>428</v>
       </c>
       <c r="F89" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G89" t="s">
         <v>428</v>
       </c>
       <c r="H89" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I89" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="J89" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K89" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="L89" t="n" s="2">
         <v>37062.0</v>
@@ -7979,16 +7976,16 @@
         <v>20.0</v>
       </c>
       <c r="P89" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="Q89" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="R89" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="S89" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="90">
@@ -8008,22 +8005,22 @@
         <v>428</v>
       </c>
       <c r="F90" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G90" t="s">
         <v>428</v>
       </c>
       <c r="H90" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I90" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="J90" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K90" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="L90" t="n" s="2">
         <v>31955.0</v>
@@ -8038,16 +8035,16 @@
         <v>27.0</v>
       </c>
       <c r="P90" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="Q90" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="R90" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="S90" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="91">
@@ -8067,22 +8064,22 @@
         <v>428</v>
       </c>
       <c r="F91" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="G91" t="s">
         <v>428</v>
       </c>
       <c r="H91" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I91" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="J91" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K91" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="L91" t="n" s="2">
         <v>36301.0</v>
@@ -8097,16 +8094,16 @@
         <v>21.0</v>
       </c>
       <c r="P91" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="Q91" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="R91" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="S91" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="92">
@@ -8126,22 +8123,22 @@
         <v>420</v>
       </c>
       <c r="F92" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G92" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H92" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I92" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="J92" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K92" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="L92" t="n" s="2">
         <v>41074.0</v>
@@ -8156,16 +8153,16 @@
         <v>14.0</v>
       </c>
       <c r="P92" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="Q92" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="R92" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="S92" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="93">
@@ -8182,25 +8179,25 @@
         <v>380</v>
       </c>
       <c r="E93" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F93" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="G93" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H93" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I93" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="J93" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K93" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="L93" t="n" s="2">
         <v>39144.0</v>
@@ -8215,16 +8212,16 @@
         <v>3.0</v>
       </c>
       <c r="P93" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="Q93" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="R93" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="S93" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="94">
@@ -8244,22 +8241,22 @@
         <v>442</v>
       </c>
       <c r="F94" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="G94" t="s">
         <v>428</v>
       </c>
       <c r="H94" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I94" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="J94" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K94" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="L94" t="e" s="2">
         <v>#N/A</v>
@@ -8274,16 +8271,16 @@
         <v>#N/A</v>
       </c>
       <c r="P94" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="Q94" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="R94" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="S94" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="95">
@@ -8309,16 +8306,16 @@
         <v>428</v>
       </c>
       <c r="H95" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I95" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="J95" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K95" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="L95" t="e" s="2">
         <v>#N/A</v>
@@ -8333,16 +8330,16 @@
         <v>#N/A</v>
       </c>
       <c r="P95" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="Q95" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="R95" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="S95" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="96">
@@ -8359,25 +8356,25 @@
         <v>382</v>
       </c>
       <c r="E96" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F96" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="G96" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H96" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I96" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="J96" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K96" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="L96" t="n" s="2">
         <v>42434.0</v>
@@ -8392,16 +8389,16 @@
         <v>5.0</v>
       </c>
       <c r="P96" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="Q96" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="R96" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="S96" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="97">
@@ -8421,22 +8418,22 @@
         <v>445</v>
       </c>
       <c r="F97" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G97" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H97" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I97" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="J97" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K97" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="L97" t="n" s="2">
         <v>42547.0</v>
@@ -8451,16 +8448,16 @@
         <v>26.0</v>
       </c>
       <c r="P97" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="Q97" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="R97" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="S97" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="98">
@@ -8480,22 +8477,22 @@
         <v>420</v>
       </c>
       <c r="F98" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G98" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H98" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I98" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="J98" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K98" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="L98" t="n" s="2">
         <v>40739.0</v>
@@ -8510,16 +8507,16 @@
         <v>15.0</v>
       </c>
       <c r="P98" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="Q98" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="R98" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="S98" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="99">
@@ -8539,22 +8536,22 @@
         <v>449</v>
       </c>
       <c r="F99" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G99" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H99" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I99" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="J99" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K99" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="L99" t="n" s="2">
         <v>42262.0</v>
@@ -8569,16 +8566,16 @@
         <v>15.0</v>
       </c>
       <c r="P99" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="Q99" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="R99" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="S99" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="100">
@@ -8598,22 +8595,22 @@
         <v>446</v>
       </c>
       <c r="F100" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G100" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H100" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I100" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="J100" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K100" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="L100" t="n" s="2">
         <v>42847.0</v>
@@ -8628,16 +8625,16 @@
         <v>22.0</v>
       </c>
       <c r="P100" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="Q100" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="R100" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="S100" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="101">
@@ -8657,22 +8654,22 @@
         <v>449</v>
       </c>
       <c r="F101" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G101" t="s">
         <v>428</v>
       </c>
       <c r="H101" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I101" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="J101" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K101" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="L101" t="n" s="2">
         <v>32001.0</v>
@@ -8687,16 +8684,16 @@
         <v>12.0</v>
       </c>
       <c r="P101" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="Q101" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="R101" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="S101" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="102">
@@ -8716,22 +8713,22 @@
         <v>446</v>
       </c>
       <c r="F102" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G102" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H102" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I102" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="J102" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K102" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="L102" t="n" s="2">
         <v>41784.0</v>
@@ -8746,16 +8743,16 @@
         <v>25.0</v>
       </c>
       <c r="P102" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="Q102" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="R102" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="S102" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="103">
@@ -8775,22 +8772,22 @@
         <v>446</v>
       </c>
       <c r="F103" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G103" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H103" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I103" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="J103" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K103" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="L103" t="n" s="2">
         <v>42126.0</v>
@@ -8805,16 +8802,16 @@
         <v>2.0</v>
       </c>
       <c r="P103" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="Q103" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="R103" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="S103" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="104">
@@ -8831,25 +8828,25 @@
         <v>344</v>
       </c>
       <c r="E104" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F104" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G104" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H104" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I104" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="J104" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K104" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="L104" t="n" s="2">
         <v>41783.0</v>
@@ -8864,16 +8861,16 @@
         <v>24.0</v>
       </c>
       <c r="P104" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="Q104" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="R104" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="S104" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="105">
@@ -8893,22 +8890,22 @@
         <v>448</v>
       </c>
       <c r="F105" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G105" t="s">
         <v>428</v>
       </c>
       <c r="H105" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I105" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="J105" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K105" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="L105" t="n" s="2">
         <v>39044.0</v>
@@ -8923,16 +8920,16 @@
         <v>23.0</v>
       </c>
       <c r="P105" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="Q105" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="R105" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="S105" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="106">
@@ -8952,22 +8949,22 @@
         <v>428</v>
       </c>
       <c r="F106" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G106" t="s">
         <v>428</v>
       </c>
       <c r="H106" t="s">
+        <v>617</v>
+      </c>
+      <c r="I106" t="s">
         <v>618</v>
       </c>
-      <c r="I106" t="s">
-        <v>619</v>
-      </c>
       <c r="J106" t="s">
+        <v>620</v>
+      </c>
+      <c r="K106" t="s">
         <v>621</v>
-      </c>
-      <c r="K106" t="s">
-        <v>622</v>
       </c>
       <c r="L106" t="n" s="2">
         <v>38380.0</v>
@@ -8982,16 +8979,16 @@
         <v>28.0</v>
       </c>
       <c r="P106" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="Q106" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="R106" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="S106" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="107">
@@ -9011,22 +9008,22 @@
         <v>428</v>
       </c>
       <c r="F107" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="G107" t="s">
         <v>428</v>
       </c>
       <c r="H107" t="s">
+        <v>617</v>
+      </c>
+      <c r="I107" t="s">
         <v>618</v>
       </c>
-      <c r="I107" t="s">
-        <v>619</v>
-      </c>
       <c r="J107" t="s">
+        <v>620</v>
+      </c>
+      <c r="K107" t="s">
         <v>621</v>
-      </c>
-      <c r="K107" t="s">
-        <v>622</v>
       </c>
       <c r="L107" t="n" s="2">
         <v>38052.0</v>
@@ -9041,16 +9038,16 @@
         <v>6.0</v>
       </c>
       <c r="P107" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="Q107" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="R107" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="S107" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="108">
@@ -9067,25 +9064,25 @@
         <v>391</v>
       </c>
       <c r="E108" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F108" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G108" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H108" t="s">
+        <v>617</v>
+      </c>
+      <c r="I108" t="s">
         <v>618</v>
       </c>
-      <c r="I108" t="s">
-        <v>619</v>
-      </c>
       <c r="J108" t="s">
+        <v>620</v>
+      </c>
+      <c r="K108" t="s">
         <v>621</v>
-      </c>
-      <c r="K108" t="s">
-        <v>622</v>
       </c>
       <c r="L108" t="n" s="2">
         <v>41615.0</v>
@@ -9100,16 +9097,16 @@
         <v>7.0</v>
       </c>
       <c r="P108" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="Q108" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="R108" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="S108" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="109">
@@ -9126,25 +9123,25 @@
         <v>392</v>
       </c>
       <c r="E109" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F109" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="G109" t="s">
         <v>428</v>
       </c>
       <c r="H109" t="s">
+        <v>617</v>
+      </c>
+      <c r="I109" t="s">
         <v>618</v>
       </c>
-      <c r="I109" t="s">
-        <v>619</v>
-      </c>
       <c r="J109" t="s">
+        <v>620</v>
+      </c>
+      <c r="K109" t="s">
         <v>621</v>
-      </c>
-      <c r="K109" t="s">
-        <v>622</v>
       </c>
       <c r="L109" t="n" s="2">
         <v>34749.0</v>
@@ -9159,16 +9156,16 @@
         <v>19.0</v>
       </c>
       <c r="P109" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="Q109" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="R109" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="S109" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="110">
@@ -9185,25 +9182,25 @@
         <v>393</v>
       </c>
       <c r="E110" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F110" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="G110" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H110" t="s">
+        <v>617</v>
+      </c>
+      <c r="I110" t="s">
         <v>618</v>
       </c>
-      <c r="I110" t="s">
-        <v>619</v>
-      </c>
       <c r="J110" t="s">
+        <v>620</v>
+      </c>
+      <c r="K110" t="s">
         <v>621</v>
-      </c>
-      <c r="K110" t="s">
-        <v>622</v>
       </c>
       <c r="L110" t="n" s="2">
         <v>42755.0</v>
@@ -9218,16 +9215,16 @@
         <v>20.0</v>
       </c>
       <c r="P110" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="Q110" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="R110" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="S110" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="111">
@@ -9244,25 +9241,25 @@
         <v>394</v>
       </c>
       <c r="E111" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F111" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="G111" t="s">
         <v>428</v>
       </c>
       <c r="H111" t="s">
+        <v>617</v>
+      </c>
+      <c r="I111" t="s">
         <v>618</v>
       </c>
-      <c r="I111" t="s">
-        <v>619</v>
-      </c>
       <c r="J111" t="s">
+        <v>620</v>
+      </c>
+      <c r="K111" t="s">
         <v>621</v>
-      </c>
-      <c r="K111" t="s">
-        <v>622</v>
       </c>
       <c r="L111" t="n" s="2">
         <v>38017.0</v>
@@ -9277,16 +9274,16 @@
         <v>31.0</v>
       </c>
       <c r="P111" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="Q111" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="R111" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="S111" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="112">
@@ -9303,25 +9300,25 @@
         <v>395</v>
       </c>
       <c r="E112" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F112" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="G112" t="s">
         <v>428</v>
       </c>
       <c r="H112" t="s">
+        <v>617</v>
+      </c>
+      <c r="I112" t="s">
         <v>618</v>
       </c>
-      <c r="I112" t="s">
-        <v>619</v>
-      </c>
       <c r="J112" t="s">
+        <v>620</v>
+      </c>
+      <c r="K112" t="s">
         <v>621</v>
-      </c>
-      <c r="K112" t="s">
-        <v>622</v>
       </c>
       <c r="L112" t="n" s="2">
         <v>36562.0</v>
@@ -9336,16 +9333,16 @@
         <v>6.0</v>
       </c>
       <c r="P112" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="Q112" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="R112" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="S112" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="113">
@@ -9362,25 +9359,25 @@
         <v>396</v>
       </c>
       <c r="E113" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F113" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="G113" t="s">
         <v>428</v>
       </c>
       <c r="H113" t="s">
+        <v>617</v>
+      </c>
+      <c r="I113" t="s">
         <v>618</v>
       </c>
-      <c r="I113" t="s">
-        <v>619</v>
-      </c>
       <c r="J113" t="s">
+        <v>620</v>
+      </c>
+      <c r="K113" t="s">
         <v>621</v>
-      </c>
-      <c r="K113" t="s">
-        <v>622</v>
       </c>
       <c r="L113" t="n" s="2">
         <v>35827.0</v>
@@ -9395,16 +9392,16 @@
         <v>1.0</v>
       </c>
       <c r="P113" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="Q113" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="R113" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="S113" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="114">
@@ -9421,25 +9418,25 @@
         <v>397</v>
       </c>
       <c r="E114" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F114" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="G114" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H114" t="s">
+        <v>617</v>
+      </c>
+      <c r="I114" t="s">
         <v>618</v>
       </c>
-      <c r="I114" t="s">
-        <v>619</v>
-      </c>
       <c r="J114" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K114" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="L114" t="n" s="2">
         <v>42792.0</v>
@@ -9454,16 +9451,16 @@
         <v>26.0</v>
       </c>
       <c r="P114" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="Q114" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="R114" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="S114" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="115">
@@ -9480,25 +9477,25 @@
         <v>398</v>
       </c>
       <c r="E115" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F115" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="G115" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H115" t="s">
+        <v>617</v>
+      </c>
+      <c r="I115" t="s">
         <v>618</v>
       </c>
-      <c r="I115" t="s">
-        <v>619</v>
-      </c>
       <c r="J115" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K115" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="L115" t="n" s="2">
         <v>39494.0</v>
@@ -9513,16 +9510,16 @@
         <v>16.0</v>
       </c>
       <c r="P115" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="Q115" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="R115" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="S115" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="116">
@@ -9542,22 +9539,22 @@
         <v>428</v>
       </c>
       <c r="F116" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G116" t="s">
         <v>428</v>
       </c>
       <c r="H116" t="s">
+        <v>617</v>
+      </c>
+      <c r="I116" t="s">
         <v>618</v>
       </c>
-      <c r="I116" t="s">
-        <v>619</v>
-      </c>
       <c r="J116" t="s">
+        <v>620</v>
+      </c>
+      <c r="K116" t="s">
         <v>621</v>
-      </c>
-      <c r="K116" t="s">
-        <v>622</v>
       </c>
       <c r="L116" t="n" s="2">
         <v>35832.0</v>
@@ -9572,16 +9569,16 @@
         <v>6.0</v>
       </c>
       <c r="P116" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="Q116" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="R116" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="S116" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="117">
@@ -9598,25 +9595,25 @@
         <v>400</v>
       </c>
       <c r="E117" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F117" t="s">
-        <v>515</v>
+        <v>533</v>
       </c>
       <c r="G117" t="s">
         <v>428</v>
       </c>
       <c r="H117" t="s">
+        <v>617</v>
+      </c>
+      <c r="I117" t="s">
         <v>618</v>
       </c>
-      <c r="I117" t="s">
-        <v>619</v>
-      </c>
       <c r="J117" t="s">
+        <v>620</v>
+      </c>
+      <c r="K117" t="s">
         <v>621</v>
-      </c>
-      <c r="K117" t="s">
-        <v>622</v>
       </c>
       <c r="L117" t="n" s="2">
         <v>35845.0</v>
@@ -9631,16 +9628,16 @@
         <v>19.0</v>
       </c>
       <c r="P117" t="s">
-        <v>664</v>
+        <v>682</v>
       </c>
       <c r="Q117" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="R117" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="S117" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="118">
@@ -9657,25 +9654,25 @@
         <v>401</v>
       </c>
       <c r="E118" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F118" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G118" t="s">
         <v>428</v>
       </c>
       <c r="H118" t="s">
+        <v>617</v>
+      </c>
+      <c r="I118" t="s">
         <v>618</v>
       </c>
-      <c r="I118" t="s">
-        <v>619</v>
-      </c>
       <c r="J118" t="s">
+        <v>620</v>
+      </c>
+      <c r="K118" t="s">
         <v>621</v>
-      </c>
-      <c r="K118" t="s">
-        <v>622</v>
       </c>
       <c r="L118" t="n" s="2">
         <v>37297.0</v>
@@ -9690,16 +9687,16 @@
         <v>10.0</v>
       </c>
       <c r="P118" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="Q118" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="R118" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="S118" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="119">
@@ -9719,22 +9716,22 @@
         <v>428</v>
       </c>
       <c r="F119" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G119" t="s">
         <v>428</v>
       </c>
       <c r="H119" t="s">
+        <v>617</v>
+      </c>
+      <c r="I119" t="s">
         <v>618</v>
       </c>
-      <c r="I119" t="s">
-        <v>619</v>
-      </c>
       <c r="J119" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K119" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="L119" t="n" s="2">
         <v>27790.0</v>
@@ -9749,16 +9746,16 @@
         <v>31.0</v>
       </c>
       <c r="P119" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="Q119" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="R119" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="S119" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="120">
@@ -9775,25 +9772,25 @@
         <v>403</v>
       </c>
       <c r="E120" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F120" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G120" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H120" t="s">
+        <v>617</v>
+      </c>
+      <c r="I120" t="s">
         <v>618</v>
       </c>
-      <c r="I120" t="s">
-        <v>619</v>
-      </c>
       <c r="J120" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K120" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="L120" t="n" s="2">
         <v>40587.0</v>
@@ -9808,16 +9805,16 @@
         <v>13.0</v>
       </c>
       <c r="P120" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="Q120" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="R120" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="S120" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="121">
@@ -9837,22 +9834,22 @@
         <v>428</v>
       </c>
       <c r="F121" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G121" t="s">
         <v>428</v>
       </c>
       <c r="H121" t="s">
+        <v>617</v>
+      </c>
+      <c r="I121" t="s">
         <v>618</v>
       </c>
-      <c r="I121" t="s">
-        <v>619</v>
-      </c>
       <c r="J121" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K121" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="L121" t="n" s="2">
         <v>42396.0</v>
@@ -9867,16 +9864,16 @@
         <v>27.0</v>
       </c>
       <c r="P121" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="Q121" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="R121" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="S121" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="122">
@@ -9893,25 +9890,25 @@
         <v>405</v>
       </c>
       <c r="E122" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F122" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G122" t="s">
         <v>428</v>
       </c>
       <c r="H122" t="s">
+        <v>617</v>
+      </c>
+      <c r="I122" t="s">
         <v>618</v>
       </c>
-      <c r="I122" t="s">
-        <v>619</v>
-      </c>
       <c r="J122" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K122" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="L122" t="n" s="2">
         <v>34002.0</v>
@@ -9926,16 +9923,16 @@
         <v>2.0</v>
       </c>
       <c r="P122" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="Q122" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="R122" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="S122" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="123">
@@ -9952,25 +9949,25 @@
         <v>406</v>
       </c>
       <c r="E123" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F123" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G123" t="s">
         <v>428</v>
       </c>
       <c r="H123" t="s">
+        <v>617</v>
+      </c>
+      <c r="I123" t="s">
         <v>618</v>
       </c>
-      <c r="I123" t="s">
-        <v>619</v>
-      </c>
       <c r="J123" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K123" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="L123" t="n" s="2">
         <v>34385.0</v>
@@ -9985,16 +9982,16 @@
         <v>20.0</v>
       </c>
       <c r="P123" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="Q123" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="R123" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="S123" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="124">
@@ -10014,22 +10011,22 @@
         <v>428</v>
       </c>
       <c r="F124" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G124" t="s">
         <v>428</v>
       </c>
       <c r="H124" t="s">
+        <v>617</v>
+      </c>
+      <c r="I124" t="s">
         <v>618</v>
       </c>
-      <c r="I124" t="s">
-        <v>619</v>
-      </c>
       <c r="J124" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K124" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="L124" t="n" s="2">
         <v>32935.0</v>
@@ -10044,16 +10041,16 @@
         <v>3.0</v>
       </c>
       <c r="P124" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="Q124" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="R124" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="S124" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="125">
@@ -10079,16 +10076,16 @@
         <v>428</v>
       </c>
       <c r="H125" t="s">
+        <v>617</v>
+      </c>
+      <c r="I125" t="s">
         <v>618</v>
       </c>
-      <c r="I125" t="s">
-        <v>619</v>
-      </c>
       <c r="J125" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K125" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="L125" t="e" s="2">
         <v>#N/A</v>
@@ -10103,16 +10100,16 @@
         <v>#N/A</v>
       </c>
       <c r="P125" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="Q125" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="R125" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="S125" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="126">
@@ -10132,22 +10129,22 @@
         <v>428</v>
       </c>
       <c r="F126" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G126" t="s">
         <v>428</v>
       </c>
       <c r="H126" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I126" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="J126" t="s">
+        <v>620</v>
+      </c>
+      <c r="K126" t="s">
         <v>621</v>
-      </c>
-      <c r="K126" t="s">
-        <v>622</v>
       </c>
       <c r="L126" t="n" s="2">
         <v>40923.0</v>
@@ -10162,16 +10159,16 @@
         <v>15.0</v>
       </c>
       <c r="P126" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="Q126" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="R126" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="S126" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="127">
@@ -10191,22 +10188,22 @@
         <v>444</v>
       </c>
       <c r="F127" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G127" t="s">
         <v>428</v>
       </c>
       <c r="H127" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I127" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="J127" t="s">
+        <v>620</v>
+      </c>
+      <c r="K127" t="s">
         <v>621</v>
-      </c>
-      <c r="K127" t="s">
-        <v>622</v>
       </c>
       <c r="L127" t="n" s="2">
         <v>31842.0</v>
@@ -10221,16 +10218,16 @@
         <v>6.0</v>
       </c>
       <c r="P127" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="Q127" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="R127" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="S127" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="128">
@@ -10250,22 +10247,22 @@
         <v>428</v>
       </c>
       <c r="F128" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G128" t="s">
         <v>428</v>
       </c>
       <c r="H128" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I128" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="J128" t="s">
+        <v>620</v>
+      </c>
+      <c r="K128" t="s">
         <v>621</v>
-      </c>
-      <c r="K128" t="s">
-        <v>622</v>
       </c>
       <c r="L128" t="n" s="2">
         <v>30751.0</v>
@@ -10280,16 +10277,16 @@
         <v>10.0</v>
       </c>
       <c r="P128" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="Q128" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="R128" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="S128" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="129">
@@ -10309,22 +10306,22 @@
         <v>428</v>
       </c>
       <c r="F129" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G129" t="s">
         <v>428</v>
       </c>
       <c r="H129" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I129" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="J129" t="s">
+        <v>620</v>
+      </c>
+      <c r="K129" t="s">
         <v>621</v>
-      </c>
-      <c r="K129" t="s">
-        <v>622</v>
       </c>
       <c r="L129" t="n" s="2">
         <v>30744.0</v>
@@ -10339,16 +10336,16 @@
         <v>3.0</v>
       </c>
       <c r="P129" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="Q129" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="R129" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="S129" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="130">
@@ -10368,22 +10365,22 @@
         <v>444</v>
       </c>
       <c r="F130" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G130" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H130" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I130" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="J130" t="s">
+        <v>620</v>
+      </c>
+      <c r="K130" t="s">
         <v>621</v>
-      </c>
-      <c r="K130" t="s">
-        <v>622</v>
       </c>
       <c r="L130" t="n" s="2">
         <v>40979.0</v>
@@ -10398,16 +10395,16 @@
         <v>11.0</v>
       </c>
       <c r="P130" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="Q130" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="R130" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="S130" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="131">
@@ -10424,25 +10421,25 @@
         <v>413</v>
       </c>
       <c r="E131" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F131" t="s">
-        <v>515</v>
+        <v>533</v>
       </c>
       <c r="G131" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H131" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I131" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="J131" t="s">
+        <v>620</v>
+      </c>
+      <c r="K131" t="s">
         <v>621</v>
-      </c>
-      <c r="K131" t="s">
-        <v>622</v>
       </c>
       <c r="L131" t="n" s="2">
         <v>40596.0</v>
@@ -10457,16 +10454,16 @@
         <v>22.0</v>
       </c>
       <c r="P131" t="s">
-        <v>664</v>
+        <v>682</v>
       </c>
       <c r="Q131" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="R131" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="S131" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="132">
@@ -10483,25 +10480,25 @@
         <v>414</v>
       </c>
       <c r="E132" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F132" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="G132" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H132" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I132" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="J132" t="s">
+        <v>620</v>
+      </c>
+      <c r="K132" t="s">
         <v>621</v>
-      </c>
-      <c r="K132" t="s">
-        <v>622</v>
       </c>
       <c r="L132" t="n" s="2">
         <v>42784.0</v>
@@ -10516,16 +10513,16 @@
         <v>18.0</v>
       </c>
       <c r="P132" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="Q132" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="R132" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="S132" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="133">
@@ -10542,25 +10539,25 @@
         <v>415</v>
       </c>
       <c r="E133" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F133" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="G133" t="s">
         <v>428</v>
       </c>
       <c r="H133" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I133" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="J133" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K133" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="L133" t="n" s="2">
         <v>40229.0</v>
@@ -10575,16 +10572,16 @@
         <v>20.0</v>
       </c>
       <c r="P133" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="Q133" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="R133" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="S133" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="134">
@@ -10604,22 +10601,22 @@
         <v>428</v>
       </c>
       <c r="F134" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G134" t="s">
         <v>428</v>
       </c>
       <c r="H134" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I134" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="J134" t="s">
+        <v>620</v>
+      </c>
+      <c r="K134" t="s">
         <v>621</v>
-      </c>
-      <c r="K134" t="s">
-        <v>622</v>
       </c>
       <c r="L134" t="n" s="2">
         <v>36204.0</v>
@@ -10634,16 +10631,16 @@
         <v>13.0</v>
       </c>
       <c r="P134" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="Q134" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="R134" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="S134" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="135">
@@ -10663,22 +10660,22 @@
         <v>428</v>
       </c>
       <c r="F135" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G135" t="s">
         <v>428</v>
       </c>
       <c r="H135" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I135" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="J135" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K135" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="L135" t="n" s="2">
         <v>29273.0</v>
@@ -10693,16 +10690,16 @@
         <v>22.0</v>
       </c>
       <c r="P135" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="Q135" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="R135" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="S135" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="136">
@@ -10719,25 +10716,25 @@
         <v>418</v>
       </c>
       <c r="E136" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F136" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G136" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H136" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I136" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="J136" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K136" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="L136" t="n" s="2">
         <v>40572.0</v>
@@ -10752,16 +10749,16 @@
         <v>29.0</v>
       </c>
       <c r="P136" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="Q136" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="R136" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="S136" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="137">
@@ -10778,25 +10775,25 @@
         <v>419</v>
       </c>
       <c r="E137" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F137" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G137" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H137" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I137" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="J137" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K137" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="L137" t="n" s="2">
         <v>40599.0</v>
@@ -10811,16 +10808,16 @@
         <v>25.0</v>
       </c>
       <c r="P137" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="Q137" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="R137" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="S137" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="138">
@@ -10846,16 +10843,16 @@
         <v>428</v>
       </c>
       <c r="H138" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I138" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="J138" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K138" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="L138" t="e" s="2">
         <v>#N/A</v>
@@ -10870,16 +10867,16 @@
         <v>#N/A</v>
       </c>
       <c r="P138" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="Q138" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="R138" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="S138" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
   </sheetData>
